--- a/RotoShootUnityProject/Assets/Resources/mySheet_x.xlsx
+++ b/RotoShootUnityProject/Assets/Resources/mySheet_x.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\UnityProjects\RotoShoot\RotoShootUnityProject\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F337708B-3B3B-48DD-87AA-A035DBD1584E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9889A876-A416-4573-BF05-AE6144F64F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-39528" yWindow="-5484" windowWidth="22200" windowHeight="21876" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-35004" yWindow="-2148" windowWidth="13476" windowHeight="17916" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mySheet_x" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1976,7 +1977,7 @@
         <v>91</v>
       </c>
       <c r="B95">
-        <f t="shared" ref="B95:B126" si="4">($A$5+((SUM(A95-1)/SUM($A$104-1))*($B$104-$A$5)))</f>
+        <f t="shared" ref="B95:B103" si="4">($A$5+((SUM(A95-1)/SUM($A$104-1))*($B$104-$A$5)))</f>
         <v>181.90909090909091</v>
       </c>
     </row>
